--- a/src/main/resources/templates/forma/routeSheetTemplate.xlsx
+++ b/src/main/resources/templates/forma/routeSheetTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t xml:space="preserve">Место для штампа
 организации</t>
@@ -319,33 +319,6 @@
   </si>
   <si>
     <t xml:space="preserve">назначения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ул. Маршала Говорова, д. 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кириши</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пройдено, км</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">за часы, руб.коп.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итого, руб.коп.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расчет произвел  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Генеральный директор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">должность</t>
   </si>
 </sst>
 </file>
@@ -698,7 +671,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="116">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1161,34 +1134,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1208,9 +1153,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1225,8 +1170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3175200" y="9219960"/>
-          <a:ext cx="266400" cy="161640"/>
+          <a:off x="3175560" y="9220320"/>
+          <a:ext cx="266040" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,9 +1195,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1267,8 +1212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3146760" y="9219960"/>
-          <a:ext cx="432720" cy="161640"/>
+          <a:off x="3147120" y="9220320"/>
+          <a:ext cx="432360" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1295,9 +1240,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -1312,8 +1257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3579840" y="9219960"/>
-          <a:ext cx="504360" cy="161640"/>
+          <a:off x="3580200" y="9220320"/>
+          <a:ext cx="504000" cy="161280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1347,8 +1292,8 @@
   </sheetPr>
   <dimension ref="A2:M70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A19" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A55" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2320,7 +2265,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="101" t="n">
         <f aca="false">L22+C65</f>
-        <v>179493</v>
+        <v>179173</v>
       </c>
       <c r="M50" s="101"/>
     </row>
@@ -2487,224 +2432,187 @@
       <c r="M58" s="107"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="117" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="116" t="n">
-        <v>160</v>
-      </c>
-      <c r="I59" s="116"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="116"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="116"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="116" t="n">
-        <v>2</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="117" t="str">
-        <f aca="false">D59</f>
-        <v>Кириши</v>
-      </c>
-      <c r="D62" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="116" t="n">
-        <v>160</v>
-      </c>
-      <c r="I62" s="116"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
+      <c r="A62" s="0"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="116"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="118"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="116"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="118"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
+      <c r="A64" s="0"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="120"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="121"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
+      <c r="A65" s="0"/>
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="8.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
+      <c r="A66" s="0"/>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="H67" s="58"/>
-      <c r="I67" s="121"/>
-      <c r="J67" s="121"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
+      <c r="A67" s="0"/>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="122"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="122" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="122"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-    </row>
-    <row r="70" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
-      <c r="B70" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
+      <c r="A68" s="0"/>
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
+      <c r="K68" s="0"/>
+      <c r="L68" s="0"/>
+      <c r="M68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="57">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="A5:H5"/>
@@ -2762,29 +2670,6 @@
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="H56:I58"/>
     <mergeCell ref="J56:M58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:I61"/>
-    <mergeCell ref="J59:M61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H62:I64"/>
-    <mergeCell ref="J62:M64"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="G70:H70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.979861111111111" right="0.55" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
